--- a/biology/Zoologie/Gracillaria_syringella/Gracillaria_syringella.xlsx
+++ b/biology/Zoologie/Gracillaria_syringella/Gracillaria_syringella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gracillaria syringella est une espèce de lépidoptères (papillons) de la famille des Gracillariidae, originaire d'Europe.
 Ce petit papillon est un ravageur dont les chenilles, appelées Mineuses du lilas, Teigne du lilas, Fausse-teigne du lilas, creusent des galeries dans des feuilles de divers arbres et arbustes.
-Sa gamme d'hôtes comprend notamment les espèces suivantes : Deutzia spp., Euonymus europaeus (fusain), Fraxinus excelsior (frêne), Jasminum officinale (jasmin), Ligustrum vulgare (troène),  Phillyrea latifolia, Syringa vulgaris (lilas)[1].
+Sa gamme d'hôtes comprend notamment les espèces suivantes : Deutzia spp., Euonymus europaeus (fusain), Fraxinus excelsior (frêne), Jasminum officinale (jasmin), Ligustrum vulgare (troène),  Phillyrea latifolia, Syringa vulgaris (lilas).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 août 2014) :
 Caloptilia syringella (Fabricius, 1794),
 Gracillaria anastomosis Haworth, 1828,
 Gracillaria ardeaepennella (Treitschke, 1833),
